--- a/results/mp/logistic/corona/confidence/210/desired-masking-0.15/avg_0.004_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/210/desired-masking-0.15/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="69">
   <si>
     <t>anchor score</t>
   </si>
@@ -46,45 +46,57 @@
     <t>die</t>
   </si>
   <si>
+    <t>crude</t>
+  </si>
+  <si>
     <t>fraud</t>
   </si>
   <si>
-    <t>crude</t>
-  </si>
-  <si>
-    <t>collapse</t>
-  </si>
-  <si>
     <t>crisis</t>
   </si>
   <si>
+    <t>fuck</t>
+  </si>
+  <si>
     <t>fears</t>
   </si>
   <si>
+    <t>panic</t>
+  </si>
+  <si>
+    <t>shit</t>
+  </si>
+  <si>
+    <t>drop</t>
+  </si>
+  <si>
+    <t>sc</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
     <t>falling</t>
   </si>
   <si>
-    <t>panic</t>
-  </si>
-  <si>
-    <t>drop</t>
-  </si>
-  <si>
-    <t>sc</t>
-  </si>
-  <si>
-    <t>fuck</t>
-  </si>
-  <si>
-    <t>low</t>
-  </si>
-  <si>
     <t>no</t>
   </si>
   <si>
+    <t>avoid</t>
+  </si>
+  <si>
     <t>emergency</t>
   </si>
   <si>
+    <t>cut</t>
+  </si>
+  <si>
+    <t>lower</t>
+  </si>
+  <si>
+    <t>empty</t>
+  </si>
+  <si>
     <t>risk</t>
   </si>
   <si>
@@ -94,6 +106,12 @@
     <t>demand</t>
   </si>
   <si>
+    <t>oil</t>
+  </si>
+  <si>
+    <t>co</t>
+  </si>
+  <si>
     <t>negative</t>
   </si>
   <si>
@@ -118,63 +136,66 @@
     <t>hand</t>
   </si>
   <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
     <t>safe</t>
   </si>
   <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
     <t>support</t>
   </si>
   <si>
-    <t>thank</t>
-  </si>
-  <si>
     <t>thanks</t>
   </si>
   <si>
+    <t>positive</t>
+  </si>
+  <si>
     <t>confidence</t>
   </si>
   <si>
-    <t>positive</t>
-  </si>
-  <si>
     <t>better</t>
   </si>
   <si>
+    <t>won</t>
+  </si>
+  <si>
     <t>fresh</t>
   </si>
   <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>giving</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
     <t>relief</t>
   </si>
   <si>
-    <t>won</t>
-  </si>
-  <si>
     <t>safety</t>
   </si>
   <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
     <t>well</t>
   </si>
   <si>
@@ -187,13 +208,19 @@
     <t>share</t>
   </si>
   <si>
+    <t>give</t>
+  </si>
+  <si>
     <t>important</t>
   </si>
   <si>
     <t>protect</t>
   </si>
   <si>
-    <t>sure</t>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>you</t>
   </si>
 </sst>
 </file>
@@ -551,7 +578,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q35"/>
+  <dimension ref="A1:Q38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -559,10 +586,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="J1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -620,13 +647,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9210526315789473</v>
+        <v>0.9473684210526315</v>
       </c>
       <c r="C3">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D3">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -638,10 +665,10 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="K3">
         <v>0.9782608695652174</v>
@@ -670,13 +697,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8918918918918919</v>
+        <v>0.918918918918919</v>
       </c>
       <c r="C4">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D4">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -688,10 +715,10 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="K4">
         <v>0.95</v>
@@ -720,13 +747,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8888888888888888</v>
+        <v>0.9117647058823529</v>
       </c>
       <c r="C5">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D5">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -738,10 +765,10 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="K5">
         <v>0.9491525423728814</v>
@@ -770,13 +797,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.8823529411764706</v>
+        <v>0.8611111111111112</v>
       </c>
       <c r="C6">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D6">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -788,10 +815,10 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="K6">
         <v>0.9393939393939394</v>
@@ -820,13 +847,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.8666666666666667</v>
+        <v>0.8595890410958904</v>
       </c>
       <c r="C7">
-        <v>26</v>
+        <v>251</v>
       </c>
       <c r="D7">
-        <v>26</v>
+        <v>251</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -838,10 +865,10 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>4</v>
+        <v>41</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="K7">
         <v>0.9302325581395349</v>
@@ -870,13 +897,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.863013698630137</v>
+        <v>0.717948717948718</v>
       </c>
       <c r="C8">
-        <v>252</v>
+        <v>28</v>
       </c>
       <c r="D8">
-        <v>252</v>
+        <v>28</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -888,10 +915,10 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="K8">
         <v>0.9166666666666666</v>
@@ -920,37 +947,37 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7647058823529411</v>
+        <v>0.7058823529411765</v>
       </c>
       <c r="C9">
+        <v>36</v>
+      </c>
+      <c r="D9">
+        <v>36</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>15</v>
+      </c>
+      <c r="J9" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D9">
-        <v>39</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>12</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="K9">
-        <v>0.9138381201044387</v>
+        <v>0.9007832898172323</v>
       </c>
       <c r="L9">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="M9">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -962,7 +989,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>33</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -970,13 +997,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.75</v>
+        <v>0.7015503875968992</v>
       </c>
       <c r="C10">
-        <v>30</v>
+        <v>362</v>
       </c>
       <c r="D10">
-        <v>30</v>
+        <v>362</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -988,19 +1015,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>10</v>
+        <v>154</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="K10">
-        <v>0.9014084507042254</v>
+        <v>0.8984375</v>
       </c>
       <c r="L10">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="M10">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1012,7 +1039,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1020,13 +1047,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.6976744186046512</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="C11">
-        <v>360</v>
+        <v>27</v>
       </c>
       <c r="D11">
-        <v>360</v>
+        <v>27</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1038,10 +1065,10 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>156</v>
+        <v>12</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="K11">
         <v>0.8936170212765957</v>
@@ -1070,13 +1097,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.6949152542372882</v>
+        <v>0.6779661016949152</v>
       </c>
       <c r="C12">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D12">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1088,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="K12">
         <v>0.8928571428571429</v>
@@ -1120,13 +1147,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.6772486772486772</v>
+        <v>0.671957671957672</v>
       </c>
       <c r="C13">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D13">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1138,10 +1165,10 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="K13">
         <v>0.8875</v>
@@ -1170,13 +1197,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.6666666666666666</v>
+        <v>0.6510067114093959</v>
       </c>
       <c r="C14">
-        <v>26</v>
+        <v>97</v>
       </c>
       <c r="D14">
-        <v>26</v>
+        <v>97</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1188,19 +1215,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="K14">
-        <v>0.8867924528301887</v>
+        <v>0.8873239436619719</v>
       </c>
       <c r="L14">
-        <v>94</v>
+        <v>126</v>
       </c>
       <c r="M14">
-        <v>94</v>
+        <v>126</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1212,7 +1239,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1220,38 +1247,38 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.6174496644295302</v>
+        <v>0.625</v>
       </c>
       <c r="C15">
+        <v>25</v>
+      </c>
+      <c r="D15">
+        <v>25</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15" t="b">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>15</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K15">
+        <v>0.8679245283018868</v>
+      </c>
+      <c r="L15">
         <v>92</v>
       </c>
-      <c r="D15">
+      <c r="M15">
         <v>92</v>
       </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15" t="b">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>57</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="K15">
-        <v>0.8828125</v>
-      </c>
-      <c r="L15">
-        <v>113</v>
-      </c>
-      <c r="M15">
-        <v>113</v>
-      </c>
       <c r="N15">
         <v>1</v>
       </c>
@@ -1262,7 +1289,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1270,13 +1297,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.5861111111111111</v>
+        <v>0.6027777777777777</v>
       </c>
       <c r="C16">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="D16">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1288,10 +1315,10 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="K16">
         <v>0.8658536585365854</v>
@@ -1320,13 +1347,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.5066666666666667</v>
+        <v>0.509090909090909</v>
       </c>
       <c r="C17">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="D17">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1338,19 +1365,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="K17">
-        <v>0.8611111111111112</v>
+        <v>0.8620689655172413</v>
       </c>
       <c r="L17">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="M17">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1362,7 +1389,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1370,13 +1397,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.3766233766233766</v>
+        <v>0.5066666666666667</v>
       </c>
       <c r="C18">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="D18">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1388,19 +1415,19 @@
         <v>0</v>
       </c>
       <c r="H18">
+        <v>37</v>
+      </c>
+      <c r="J18" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="J18" s="1" t="s">
-        <v>42</v>
-      </c>
       <c r="K18">
-        <v>0.8448275862068966</v>
+        <v>0.8611111111111112</v>
       </c>
       <c r="L18">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="M18">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1412,7 +1439,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1420,13 +1447,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.3015873015873016</v>
+        <v>0.4909090909090909</v>
       </c>
       <c r="C19">
-        <v>76</v>
+        <v>27</v>
       </c>
       <c r="D19">
-        <v>76</v>
+        <v>27</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1438,19 +1465,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>176</v>
+        <v>28</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="K19">
-        <v>0.8095238095238095</v>
+        <v>0.8253968253968254</v>
       </c>
       <c r="L19">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M19">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1462,7 +1489,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1470,13 +1497,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.1662198391420912</v>
+        <v>0.4821428571428572</v>
       </c>
       <c r="C20">
-        <v>62</v>
+        <v>27</v>
       </c>
       <c r="D20">
-        <v>62</v>
+        <v>27</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1488,175 +1515,319 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>311</v>
+        <v>29</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="K20">
+        <v>0.8205128205128205</v>
+      </c>
+      <c r="L20">
+        <v>32</v>
+      </c>
+      <c r="M20">
+        <v>32</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
+      <c r="A21" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21">
+        <v>0.4777777777777778</v>
+      </c>
+      <c r="C21">
+        <v>43</v>
+      </c>
+      <c r="D21">
+        <v>43</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21" t="b">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>47</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K21">
         <v>0.7916666666666666</v>
       </c>
-      <c r="L20">
+      <c r="L21">
         <v>38</v>
       </c>
-      <c r="M20">
+      <c r="M21">
         <v>38</v>
       </c>
-      <c r="N20">
-        <v>1</v>
-      </c>
-      <c r="O20">
-        <v>0</v>
-      </c>
-      <c r="P20" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q20">
+      <c r="N21">
+        <v>1</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q21">
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:17">
-      <c r="J21" s="1" t="s">
+    <row r="22" spans="1:17">
+      <c r="A22" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22">
+        <v>0.4155844155844156</v>
+      </c>
+      <c r="C22">
+        <v>32</v>
+      </c>
+      <c r="D22">
+        <v>32</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22" t="b">
+        <v>0</v>
+      </c>
+      <c r="H22">
         <v>45</v>
       </c>
-      <c r="K21">
-        <v>0.78</v>
-      </c>
-      <c r="L21">
-        <v>39</v>
-      </c>
-      <c r="M21">
-        <v>39</v>
-      </c>
-      <c r="N21">
-        <v>1</v>
-      </c>
-      <c r="O21">
-        <v>0</v>
-      </c>
-      <c r="P21" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q21">
+      <c r="J22" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K22">
+        <v>0.7617647058823529</v>
+      </c>
+      <c r="L22">
+        <v>259</v>
+      </c>
+      <c r="M22">
+        <v>259</v>
+      </c>
+      <c r="N22">
+        <v>1</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
+      <c r="A23" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23">
+        <v>0.3095238095238095</v>
+      </c>
+      <c r="C23">
+        <v>78</v>
+      </c>
+      <c r="D23">
+        <v>78</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23" t="b">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>174</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="K23">
+        <v>0.7575757575757576</v>
+      </c>
+      <c r="L23">
+        <v>25</v>
+      </c>
+      <c r="M23">
+        <v>25</v>
+      </c>
+      <c r="N23">
+        <v>1</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
+      <c r="A24" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24">
+        <v>0.1742627345844504</v>
+      </c>
+      <c r="C24">
+        <v>65</v>
+      </c>
+      <c r="D24">
+        <v>65</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24" t="b">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>308</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="K24">
+        <v>0.735593220338983</v>
+      </c>
+      <c r="L24">
+        <v>217</v>
+      </c>
+      <c r="M24">
+        <v>217</v>
+      </c>
+      <c r="N24">
+        <v>1</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
+      <c r="A25" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25">
+        <v>0.1</v>
+      </c>
+      <c r="C25">
+        <v>30</v>
+      </c>
+      <c r="D25">
+        <v>30</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25" t="b">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>270</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="K25">
+        <v>0.725</v>
+      </c>
+      <c r="L25">
+        <v>29</v>
+      </c>
+      <c r="M25">
+        <v>29</v>
+      </c>
+      <c r="N25">
+        <v>1</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q25">
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:17">
-      <c r="J22" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="K22">
-        <v>0.7692307692307693</v>
-      </c>
-      <c r="L22">
-        <v>30</v>
-      </c>
-      <c r="M22">
-        <v>30</v>
-      </c>
-      <c r="N22">
-        <v>1</v>
-      </c>
-      <c r="O22">
-        <v>0</v>
-      </c>
-      <c r="P22" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q22">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
-      <c r="J23" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="K23">
-        <v>0.7647058823529411</v>
-      </c>
-      <c r="L23">
-        <v>39</v>
-      </c>
-      <c r="M23">
-        <v>39</v>
-      </c>
-      <c r="N23">
-        <v>1</v>
-      </c>
-      <c r="O23">
-        <v>0</v>
-      </c>
-      <c r="P23" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q23">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
-      <c r="J24" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="K24">
-        <v>0.7617647058823529</v>
-      </c>
-      <c r="L24">
-        <v>259</v>
-      </c>
-      <c r="M24">
-        <v>259</v>
-      </c>
-      <c r="N24">
-        <v>1</v>
-      </c>
-      <c r="O24">
-        <v>0</v>
-      </c>
-      <c r="P24" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q24">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
-      <c r="J25" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="K25">
-        <v>0.7428571428571429</v>
-      </c>
-      <c r="L25">
+    <row r="26" spans="1:17">
+      <c r="A26" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26">
+        <v>0.008373590982286634</v>
+      </c>
+      <c r="C26">
         <v>26</v>
       </c>
-      <c r="M25">
-        <v>26</v>
-      </c>
-      <c r="N25">
-        <v>1</v>
-      </c>
-      <c r="O25">
-        <v>0</v>
-      </c>
-      <c r="P25" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q25">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17">
+      <c r="D26">
+        <v>28</v>
+      </c>
+      <c r="E26">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="F26">
+        <v>0.9299999999999999</v>
+      </c>
+      <c r="G26" t="b">
+        <v>1</v>
+      </c>
+      <c r="H26">
+        <v>3079</v>
+      </c>
       <c r="J26" s="1" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="K26">
-        <v>0.725</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L26">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="M26">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1668,21 +1839,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27" spans="1:17">
       <c r="J27" s="1" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="K27">
-        <v>0.7238493723849372</v>
+        <v>0.702928870292887</v>
       </c>
       <c r="L27">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="M27">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1694,21 +1865,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>66</v>
+        <v>71</v>
       </c>
     </row>
     <row r="28" spans="1:17">
       <c r="J28" s="1" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="K28">
-        <v>0.7210884353741497</v>
+        <v>0.7</v>
       </c>
       <c r="L28">
-        <v>212</v>
+        <v>35</v>
       </c>
       <c r="M28">
-        <v>213</v>
+        <v>35</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1717,24 +1888,24 @@
         <v>0</v>
       </c>
       <c r="P28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q28">
-        <v>82</v>
+        <v>15</v>
       </c>
     </row>
     <row r="29" spans="1:17">
       <c r="J29" s="1" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="K29">
-        <v>0.7127659574468085</v>
+        <v>0.6862745098039216</v>
       </c>
       <c r="L29">
-        <v>67</v>
+        <v>35</v>
       </c>
       <c r="M29">
-        <v>67</v>
+        <v>35</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1746,21 +1917,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" spans="1:17">
       <c r="J30" s="1" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="K30">
-        <v>0.7078651685393258</v>
+        <v>0.6808510638297872</v>
       </c>
       <c r="L30">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M30">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1772,21 +1943,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31" spans="1:17">
       <c r="J31" s="1" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="K31">
-        <v>0.6923076923076923</v>
+        <v>0.6741573033707865</v>
       </c>
       <c r="L31">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="M31">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1798,21 +1969,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>20</v>
+        <v>29</v>
       </c>
     </row>
     <row r="32" spans="1:17">
       <c r="J32" s="1" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="K32">
-        <v>0.6428571428571429</v>
+        <v>0.6615384615384615</v>
       </c>
       <c r="L32">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="M32">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1824,21 +1995,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="K33">
-        <v>0.6222222222222222</v>
+        <v>0.6571428571428571</v>
       </c>
       <c r="L33">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="M33">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1850,15 +2021,15 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="K34">
-        <v>0.5205479452054794</v>
+        <v>0.6229508196721312</v>
       </c>
       <c r="L34">
         <v>38</v>
@@ -1876,21 +2047,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>35</v>
+        <v>23</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="K35">
-        <v>0.484375</v>
+        <v>0.6222222222222222</v>
       </c>
       <c r="L35">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="M35">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1902,7 +2073,85 @@
         <v>0</v>
       </c>
       <c r="Q35">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="36" spans="10:17">
+      <c r="J36" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K36">
+        <v>0.547945205479452</v>
+      </c>
+      <c r="L36">
+        <v>40</v>
+      </c>
+      <c r="M36">
+        <v>40</v>
+      </c>
+      <c r="N36">
+        <v>1</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+      <c r="P36" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q36">
         <v>33</v>
+      </c>
+    </row>
+    <row r="37" spans="10:17">
+      <c r="J37" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="K37">
+        <v>0.4743589743589743</v>
+      </c>
+      <c r="L37">
+        <v>37</v>
+      </c>
+      <c r="M37">
+        <v>37</v>
+      </c>
+      <c r="N37">
+        <v>1</v>
+      </c>
+      <c r="O37">
+        <v>0</v>
+      </c>
+      <c r="P37" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q37">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="38" spans="10:17">
+      <c r="J38" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K38">
+        <v>0.03419516263552961</v>
+      </c>
+      <c r="L38">
+        <v>41</v>
+      </c>
+      <c r="M38">
+        <v>42</v>
+      </c>
+      <c r="N38">
+        <v>0.98</v>
+      </c>
+      <c r="O38">
+        <v>0.02000000000000002</v>
+      </c>
+      <c r="P38" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q38">
+        <v>1158</v>
       </c>
     </row>
   </sheetData>
